--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R人物列表_Roles_19k_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R人物列表_Roles_19k_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D5C15E-510F-40DA-87F8-A0CFA05FC6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F560EEE-74D7-4E20-925F-8767F9781C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1170" windowWidth="18090" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -391,22 +391,28 @@
     <t>路人</t>
   </si>
   <si>
+    <t>Transeunte</t>
+  </si>
+  <si>
+    <t>Mulher Chorando</t>
+  </si>
+  <si>
     <t>Bêbado do Deserto</t>
   </si>
   <si>
     <t>Morador do Deserto</t>
   </si>
   <si>
-    <t>Ferreiro</t>
-  </si>
-  <si>
-    <t>Doador</t>
-  </si>
-  <si>
-    <t>Irmã do Aslan</t>
-  </si>
-  <si>
-    <t>Aprendiz da Lâmina Estranha</t>
+    <t>Pessoa dos Presentes</t>
+  </si>
+  <si>
+    <t>Pessoa das Ferramentas</t>
+  </si>
+  <si>
+    <t>Irmã de Aslan</t>
+  </si>
+  <si>
+    <t>Aprendiz da Lâmina de Vento</t>
   </si>
   <si>
     <t>Personagem de Teste de Movimento</t>
@@ -421,34 +427,28 @@
     <t>Bandido</t>
   </si>
   <si>
-    <t>Estranha Árvore Florida</t>
+    <t>Árvore Estranha em Flor</t>
   </si>
   <si>
     <t>Yeti Gigante</t>
   </si>
   <si>
-    <t>Garça da Neve</t>
-  </si>
-  <si>
-    <t>Espadachim Nasir</t>
+    <t>Garça-das-Neves</t>
+  </si>
+  <si>
+    <t>Espadachim de Nasir</t>
   </si>
   <si>
     <t>Lobo da Montanha</t>
   </si>
   <si>
-    <t>Capitão dos Soldados Rasos</t>
-  </si>
-  <si>
-    <t>Soldado Raso A</t>
-  </si>
-  <si>
-    <t>Soldado Raso B</t>
-  </si>
-  <si>
-    <t>Mulher Chorando</t>
-  </si>
-  <si>
-    <t>Transeunte</t>
+    <t>Capitão Grunhido</t>
+  </si>
+  <si>
+    <t>Grunhido B</t>
+  </si>
+  <si>
+    <t>Grunhido A</t>
   </si>
 </sst>
 </file>
@@ -949,18 +949,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="23.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
@@ -1020,7 +1016,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="3"/>
@@ -1033,7 +1029,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="3"/>
@@ -1137,7 +1133,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D13" s="2"/>
       <c r="F13" s="3"/>
@@ -1150,7 +1146,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D14" s="2"/>
       <c r="F14" s="3"/>
@@ -1189,7 +1185,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D17" s="2"/>
       <c r="F17" s="3"/>
@@ -1202,7 +1198,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D18" s="2"/>
       <c r="F18" s="3"/>
@@ -1280,7 +1276,7 @@
         <v>58</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D24" s="2"/>
       <c r="F24" s="3"/>
@@ -1306,7 +1302,7 @@
         <v>62</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D26" s="2"/>
       <c r="F26" s="3"/>
@@ -1358,7 +1354,7 @@
         <v>73</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D30" s="2"/>
       <c r="F30" s="3"/>
@@ -1371,7 +1367,7 @@
         <v>75</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D31" s="2"/>
       <c r="F31" s="3"/>
@@ -1397,7 +1393,7 @@
         <v>80</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D33" s="2"/>
       <c r="F33" s="3"/>
@@ -1410,7 +1406,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D34" s="2"/>
       <c r="F34" s="3"/>
@@ -1423,7 +1419,7 @@
         <v>83</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D35" s="2"/>
       <c r="F35" s="3"/>
@@ -1449,7 +1445,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D37" s="2"/>
       <c r="F37" s="3"/>
@@ -1475,7 +1471,7 @@
         <v>91</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D39" s="2"/>
       <c r="F39" s="3"/>
@@ -1553,7 +1549,7 @@
         <v>105</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="2"/>
       <c r="F45" s="3"/>
@@ -1636,7 +1632,7 @@
         <v>117</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D51" s="2"/>
       <c r="F51" s="3"/>
@@ -1649,7 +1645,7 @@
         <v>118</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D52" s="2"/>
       <c r="F52" s="3"/>
@@ -1662,7 +1658,7 @@
         <v>119</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D53" s="2"/>
       <c r="F53" s="3"/>
@@ -1675,7 +1671,7 @@
         <v>120</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D54" s="2"/>
       <c r="F54" s="3"/>
@@ -1688,13 +1684,12 @@
         <v>122</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="D55" s="2"/>
       <c r="F55" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>